--- a/0816/schma.xlsx
+++ b/0816/schma.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10830" windowHeight="5985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10830" windowHeight="5985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="題組一" sheetId="1" r:id="rId1"/>
+    <sheet name="題組二" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="79">
   <si>
     <t>資料表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,6 +204,136 @@
   </si>
   <si>
     <t>主 key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>news</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>que</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按讚文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>article</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章類型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>標題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按讚數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subject_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得票數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>題目.選項</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pw</t>
+  </si>
+  <si>
+    <t>密碼</t>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -210,7 +341,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -229,6 +360,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial Black"/>
       <family val="2"/>
     </font>
@@ -419,7 +557,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -450,28 +588,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -756,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -776,27 +917,27 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:15" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="I4" s="10" t="s">
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="I4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="M4" s="10" t="s">
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="M4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="17"/>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
@@ -826,10 +967,10 @@
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <v>1</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -861,10 +1002,10 @@
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="14">
+      <c r="B7" s="12">
         <v>2</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -896,49 +1037,49 @@
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="14">
+      <c r="B8" s="12">
         <v>3</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="14">
+      <c r="B9" s="12">
         <v>4</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="14">
+      <c r="B10" s="12">
         <v>5</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="I10" s="10" t="s">
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="I10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="M10" s="10" t="s">
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="M10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="14">
+      <c r="B11" s="12">
         <v>6</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -970,10 +1111,10 @@
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="14">
+      <c r="B12" s="12">
         <v>7</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="13" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -1005,10 +1146,10 @@
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="14">
+      <c r="B13" s="12">
         <v>8</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="7" t="s">
@@ -1040,10 +1181,10 @@
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="16">
+      <c r="B14" s="14">
         <v>9</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="15" t="s">
         <v>9</v>
       </c>
       <c r="M14" s="4" t="s">
@@ -1068,16 +1209,16 @@
       </c>
     </row>
     <row r="16" spans="2:15" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="I16" s="10" t="s">
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="I16" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
     </row>
     <row r="17" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E17" s="1" t="s">
@@ -1142,11 +1283,11 @@
       </c>
     </row>
     <row r="21" spans="5:11" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
     </row>
     <row r="22" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E22" s="1" t="s">
@@ -1187,4 +1328,303 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="3.5" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="6" max="6" width="7.125" customWidth="1"/>
+    <col min="7" max="7" width="6.625" customWidth="1"/>
+    <col min="9" max="9" width="7.625" customWidth="1"/>
+    <col min="10" max="10" width="7.125" customWidth="1"/>
+    <col min="11" max="11" width="8.25" customWidth="1"/>
+    <col min="13" max="13" width="7.625" customWidth="1"/>
+    <col min="14" max="14" width="7.125" customWidth="1"/>
+    <col min="15" max="15" width="6.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:15" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="E4" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="I4" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="M4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="12">
+        <v>2</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="12">
+        <v>3</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="12">
+        <v>4</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="12">
+        <v>5</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="E11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="I11" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="M4:O4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>